--- a/Design/design.xlsx
+++ b/Design/design.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taoj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kydjt\Documents\GitHub\TowerDefence2D\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E2969C-E47A-494F-9AC9-507CCCE7100E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DDBCDA-CEB0-467E-BD30-1D6DEDFB24DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5556" yWindow="1320" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="通用设定" sheetId="5" r:id="rId1"/>
-    <sheet name="概览" sheetId="1" r:id="rId2"/>
-    <sheet name="游戏内强化卡池" sheetId="6" r:id="rId3"/>
-    <sheet name="Rogue通用强化" sheetId="3" r:id="rId4"/>
-    <sheet name="Rogue射手座" sheetId="4" r:id="rId5"/>
+    <sheet name="设定备忘录" sheetId="5" r:id="rId1"/>
+    <sheet name="十二星座概览" sheetId="1" r:id="rId2"/>
+    <sheet name="UI" sheetId="7" r:id="rId3"/>
+    <sheet name="数值" sheetId="8" r:id="rId4"/>
+    <sheet name="美术" sheetId="9" r:id="rId5"/>
+    <sheet name="剧情" sheetId="10" r:id="rId6"/>
+    <sheet name="关卡设计" sheetId="11" r:id="rId7"/>
+    <sheet name="游戏内强化卡池" sheetId="6" r:id="rId8"/>
+    <sheet name="Rogue通用强化" sheetId="3" r:id="rId9"/>
+    <sheet name="Rogue射手座" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="120">
   <si>
     <t>Twelve Constellations</t>
   </si>
@@ -106,21 +111,12 @@
     <t>双鱼</t>
   </si>
   <si>
-    <t>弓箭塔</t>
-  </si>
-  <si>
-    <t>单体</t>
-  </si>
-  <si>
     <t>连射</t>
   </si>
   <si>
     <t>多重</t>
   </si>
   <si>
-    <t>伤害类型</t>
-  </si>
-  <si>
     <t>塔类型</t>
   </si>
   <si>
@@ -139,12 +135,6 @@
     <t>rogue升级树分星座专属类和通用类</t>
   </si>
   <si>
-    <t>boss抽卡多一个选项</t>
-  </si>
-  <si>
-    <t>精英抽卡多一个选项</t>
-  </si>
-  <si>
     <t>怪类型可以设定一些特殊属性，需要某种塔或者某种技能才能攻击，比如隐身</t>
   </si>
   <si>
@@ -166,27 +156,12 @@
     <t>鹰眼</t>
   </si>
   <si>
-    <t>坦</t>
-  </si>
-  <si>
-    <t>法师</t>
-  </si>
-  <si>
-    <t>范围</t>
-  </si>
-  <si>
     <t>多重施法</t>
   </si>
   <si>
     <t>召唤</t>
   </si>
   <si>
-    <t>单体/范围</t>
-  </si>
-  <si>
-    <t>减速</t>
-  </si>
-  <si>
     <t>大招</t>
   </si>
   <si>
@@ -197,6 +172,228 @@
   </si>
   <si>
     <t>狮子吼</t>
+  </si>
+  <si>
+    <t>主界面</t>
+  </si>
+  <si>
+    <t>开始游戏</t>
+  </si>
+  <si>
+    <t>继续游戏（1个存档位？自动存档？）</t>
+  </si>
+  <si>
+    <t>图鉴</t>
+  </si>
+  <si>
+    <t>画廊</t>
+  </si>
+  <si>
+    <t>退出游戏</t>
+  </si>
+  <si>
+    <t>roguelike升级树?</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>图鉴界面</t>
+  </si>
+  <si>
+    <t>妹子图鉴</t>
+  </si>
+  <si>
+    <t>怪物图鉴</t>
+  </si>
+  <si>
+    <t>道具图鉴？</t>
+  </si>
+  <si>
+    <t>返回主界面</t>
+  </si>
+  <si>
+    <t>画廊界面</t>
+  </si>
+  <si>
+    <t>妹子图片</t>
+  </si>
+  <si>
+    <t>妹子短剧情？</t>
+  </si>
+  <si>
+    <t>设置界面</t>
+  </si>
+  <si>
+    <t>音量</t>
+  </si>
+  <si>
+    <t>分辨率</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>roguelike升级界面</t>
+  </si>
+  <si>
+    <t>升级树</t>
+  </si>
+  <si>
+    <t>游戏界面</t>
+  </si>
+  <si>
+    <t>ESC暂停界面</t>
+  </si>
+  <si>
+    <t>保存并返回主界面</t>
+  </si>
+  <si>
+    <t>重新开始当前关卡</t>
+  </si>
+  <si>
+    <t>音量调节</t>
+  </si>
+  <si>
+    <t>选关界面</t>
+  </si>
+  <si>
+    <t>大地图？</t>
+  </si>
+  <si>
+    <t>关卡界面</t>
+  </si>
+  <si>
+    <t>塔固定点位放置？自由放置？</t>
+  </si>
+  <si>
+    <t>资源显示</t>
+  </si>
+  <si>
+    <t>波数显示</t>
+  </si>
+  <si>
+    <t>主脑血量显示</t>
+  </si>
+  <si>
+    <t>胜利结算界面</t>
+  </si>
+  <si>
+    <t>失败结算界面</t>
+  </si>
+  <si>
+    <t>塔（妹子）属性</t>
+  </si>
+  <si>
+    <t>怪物属性</t>
+  </si>
+  <si>
+    <t>道具属性</t>
+  </si>
+  <si>
+    <t>主脑血量计算</t>
+  </si>
+  <si>
+    <t>战斗公式（射弹类型）</t>
+  </si>
+  <si>
+    <t>资源类型</t>
+  </si>
+  <si>
+    <t>钱</t>
+  </si>
+  <si>
+    <t>魂</t>
+  </si>
+  <si>
+    <t>经验？</t>
+  </si>
+  <si>
+    <t>资源获取</t>
+  </si>
+  <si>
+    <t>资源消耗</t>
+  </si>
+  <si>
+    <t>妹子高清写真</t>
+  </si>
+  <si>
+    <t>各种背景</t>
+  </si>
+  <si>
+    <t>关卡地图</t>
+  </si>
+  <si>
+    <t>各种button</t>
+  </si>
+  <si>
+    <t>字体</t>
+  </si>
+  <si>
+    <t>妹子2D Q版模型（塔）</t>
+  </si>
+  <si>
+    <t>卡片</t>
+  </si>
+  <si>
+    <t>全局攻速</t>
+  </si>
+  <si>
+    <t>全局暴击率</t>
+  </si>
+  <si>
+    <t>全局暴击伤害</t>
+  </si>
+  <si>
+    <t>全局冷却时间减少</t>
+  </si>
+  <si>
+    <t>核心血量</t>
+  </si>
+  <si>
+    <t>辅助</t>
+  </si>
+  <si>
+    <t>冰/减速</t>
+  </si>
+  <si>
+    <t>电/传导</t>
+  </si>
+  <si>
+    <t>火/燃烧</t>
+  </si>
+  <si>
+    <t>奥/高伤</t>
+  </si>
+  <si>
+    <t>毒/dot</t>
+  </si>
+  <si>
+    <t>物理/晕眩</t>
+  </si>
+  <si>
+    <t>物理/弓箭</t>
+  </si>
+  <si>
+    <t>全局dot伤害</t>
+  </si>
+  <si>
+    <t>全局直伤</t>
+  </si>
+  <si>
+    <t>精英抽卡+1</t>
+  </si>
+  <si>
+    <t>boss抽卡+1</t>
+  </si>
+  <si>
+    <t>物理/大剑</t>
+  </si>
+  <si>
+    <t>物理/坦/盾牌/反伤</t>
+  </si>
+  <si>
+    <t>物理/狂暴战/锁链战镰/流血</t>
   </si>
 </sst>
 </file>
@@ -220,7 +417,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -228,12 +425,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,40 +786,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B61DAC-4C20-4C89-A034-9CA21C8151CC}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="123.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6273FDC-49E8-4D9E-A587-F6DE035A0C64}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -560,38 +866,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -599,13 +903,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -613,16 +914,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -630,16 +928,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -647,13 +942,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -661,40 +953,46 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -702,43 +1000,49 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
       <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -748,69 +1052,474 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428F902C-720A-44DB-8101-E725C70DC6DF}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="26.36328125" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40320DE7-98E3-4B52-819B-9471480627FB}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="41.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7C5187-CE49-4AB5-A7DF-E32A5059C4BE}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="48.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B38752-4F69-448D-8434-D63CEA843826}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9CBD58-7258-46D2-93E9-330C3690A03F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D3BECF-2E04-4025-852D-B8163019EA2B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC18288-C1F4-4F9F-A48D-778E17AB6705}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6273FDC-49E8-4D9E-A587-F6DE035A0C64}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
